--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC30_Verify_pagination_SortBy_filteronPLP.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC30_Verify_pagination_SortBy_filteronPLP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4579B-6A62-490D-A18C-8411EB05583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE1D51-2C83-4554-BF1D-73BCCE8ED8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>TestCase</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>TC30_Verify_ pagination_SortBy_filteronPLP</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,36 +746,30 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>22</v>
@@ -780,22 +777,22 @@
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -803,42 +800,42 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -846,19 +843,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>26</v>
@@ -866,7 +863,9 @@
       <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -874,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -884,7 +883,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
@@ -892,7 +891,20 @@
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
     </row>
